--- a/Data_UKR_Displacement.xlsx
+++ b/Data_UKR_Displacement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530AC1F1-0225-4DA2-B12C-965AE1DBC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552EAA1-DF42-459D-8A6C-1794D17E21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20865" yWindow="7065" windowWidth="7500" windowHeight="6000" activeTab="4" xr2:uid="{C946848B-A7C5-4182-923E-983ECD5EF2FC}"/>
+    <workbookView xWindow="21210" yWindow="7410" windowWidth="7500" windowHeight="6000" xr2:uid="{C946848B-A7C5-4182-923E-983ECD5EF2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="IDP_Age" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -192,7 +192,7 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DBD44-FA6C-4BDE-A35F-D1AEBF83F7EB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,6 +839,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -995,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D3CA68-75F2-423D-8B1A-F5E05FB7C0A7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/Data_UKR_Displacement.xlsx
+++ b/Data_UKR_Displacement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552EAA1-DF42-459D-8A6C-1794D17E21FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F13FB53-D966-4417-B9B4-C5DE41ADDCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21210" yWindow="7410" windowWidth="7500" windowHeight="6000" xr2:uid="{C946848B-A7C5-4182-923E-983ECD5EF2FC}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="4" xr2:uid="{C946848B-A7C5-4182-923E-983ECD5EF2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="IDP_Age" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Chernivetska</t>
   </si>
   <si>
-    <t>100,00</t>
-  </si>
-  <si>
     <t>Kirovohradska</t>
   </si>
   <si>
@@ -131,6 +128,60 @@
   </si>
   <si>
     <t>Odeska</t>
+  </si>
+  <si>
+    <t>Oblast</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>oblast_shape</t>
+  </si>
+  <si>
+    <t>UA.CK</t>
+  </si>
+  <si>
+    <t>UA.CV</t>
+  </si>
+  <si>
+    <t>UA.DP</t>
+  </si>
+  <si>
+    <t>UA.IF</t>
+  </si>
+  <si>
+    <t>UA.KM</t>
+  </si>
+  <si>
+    <t>UA.KH</t>
+  </si>
+  <si>
+    <t>UA.LV</t>
+  </si>
+  <si>
+    <t>UA.OD</t>
+  </si>
+  <si>
+    <t>UA.VI</t>
+  </si>
+  <si>
+    <t>UA.VO</t>
+  </si>
+  <si>
+    <t>UA.PL</t>
+  </si>
+  <si>
+    <t>UA.RV</t>
+  </si>
+  <si>
+    <t>UA.TP</t>
+  </si>
+  <si>
+    <t>UA.ZT</t>
+  </si>
+  <si>
+    <t>UA.ZK</t>
   </si>
 </sst>
 </file>
@@ -190,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,6 +253,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673DBD44-FA6C-4BDE-A35F-D1AEBF83F7EB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +749,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,129 +1046,272 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D3CA68-75F2-423D-8B1A-F5E05FB7C0A7}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44671</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>49079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>36578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>53000</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3">
+        <v>66020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3">
         <v>59625</v>
       </c>
-      <c r="C2" s="3">
-        <v>53000</v>
-      </c>
-      <c r="D2" s="3">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3">
         <v>90000</v>
       </c>
-      <c r="E2" s="3">
-        <v>323000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>66020</v>
-      </c>
-      <c r="G2" s="3">
-        <v>139000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>101000</v>
-      </c>
-      <c r="J2" s="3">
-        <v>113000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>380000</v>
-      </c>
-      <c r="L2" s="3">
-        <v>123000</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3">
-        <v>51500</v>
-      </c>
-      <c r="O2" s="3">
-        <v>49079</v>
-      </c>
-      <c r="P2" s="3">
-        <v>36578</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
